--- a/WeatherForecasts/2021/Monthly/5-10_6-12.xlsx
+++ b/WeatherForecasts/2021/Monthly/5-10_6-12.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\comm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudha.gcupadhaya\Desktop\LateBlight\WeatherForecasts\2021\Monthly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5035EF16-E623-4A8D-B7F9-0BF803B0F964}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15340" windowHeight="5960"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -101,7 +108,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -413,44 +420,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.08984375" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" customWidth="1"/>
-    <col min="5" max="5" width="26.54296875" customWidth="1"/>
-    <col min="6" max="6" width="11.36328125" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
     <col min="7" max="7" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -476,7 +483,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44326</v>
       </c>
@@ -502,7 +509,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44327</v>
       </c>
@@ -528,7 +535,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44328</v>
       </c>
@@ -554,7 +561,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44329</v>
       </c>
@@ -580,7 +587,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44330</v>
       </c>
@@ -606,7 +613,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44331</v>
       </c>
@@ -632,7 +639,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44332</v>
       </c>
@@ -658,7 +665,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44333</v>
       </c>
@@ -684,7 +691,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44334</v>
       </c>
@@ -710,7 +717,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44335</v>
       </c>
@@ -736,7 +743,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44336</v>
       </c>
@@ -762,7 +769,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44337</v>
       </c>
@@ -788,7 +795,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44338</v>
       </c>
@@ -814,7 +821,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44339</v>
       </c>
@@ -840,7 +847,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44340</v>
       </c>
@@ -866,7 +873,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44341</v>
       </c>
@@ -892,7 +899,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>44342</v>
       </c>
@@ -918,7 +925,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44343</v>
       </c>
@@ -944,7 +951,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44344</v>
       </c>
@@ -970,7 +977,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>44345</v>
       </c>
@@ -996,7 +1003,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>44346</v>
       </c>
@@ -1022,7 +1029,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>44347</v>
       </c>
@@ -1048,7 +1055,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>44348</v>
       </c>
@@ -1074,7 +1081,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>44349</v>
       </c>
@@ -1100,7 +1107,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>44350</v>
       </c>
@@ -1126,7 +1133,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>44351</v>
       </c>
@@ -1152,7 +1159,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>44352</v>
       </c>
@@ -1178,7 +1185,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>44353</v>
       </c>
@@ -1204,7 +1211,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>44354</v>
       </c>
@@ -1230,7 +1237,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>44355</v>
       </c>
@@ -1256,7 +1263,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>44356</v>
       </c>
@@ -1282,7 +1289,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>44357</v>
       </c>
@@ -1308,7 +1315,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>44358</v>
       </c>
@@ -1334,7 +1341,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>44359</v>
       </c>
@@ -1360,7 +1367,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>18</v>
       </c>
@@ -1384,10 +1391,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>10</v>
       </c>
@@ -1413,47 +1420,47 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>11</v>
       </c>
